--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1802.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1802.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153882486885926</v>
+        <v>0.74998539686203</v>
       </c>
       <c r="B1">
-        <v>2.307999811740098</v>
+        <v>1.570627927780151</v>
       </c>
       <c r="C1">
-        <v>4.287635372891896</v>
+        <v>4.555920600891113</v>
       </c>
       <c r="D1">
-        <v>2.938830637590305</v>
+        <v>2.400482416152954</v>
       </c>
       <c r="E1">
-        <v>1.15867256081755</v>
+        <v>1.261965751647949</v>
       </c>
     </row>
   </sheetData>
